--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\bp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\BPXamarin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19661569-F430-45ED-94CC-0D1F8057337B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0865E10-117D-47A7-9D61-DD17D8218CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C29FC9A5-417A-A14E-B333-6EF027CCE0F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="8" activeTab="13" xr2:uid="{C29FC9A5-417A-A14E-B333-6EF027CCE0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseXamarin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="92">
   <si>
     <t>Metingen</t>
   </si>
@@ -318,6 +318,9 @@
   <si>
     <t>UiXamarin</t>
   </si>
+  <si>
+    <t>.NET</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +331,7 @@
     <numFmt numFmtId="165" formatCode="mm:ss.000"/>
     <numFmt numFmtId="166" formatCode="ss.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +380,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -426,6 +435,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5AB3D2-D290-E744-83EE-748C66D3AFED}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1893,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BA92B5-D2B2-C348-AFC6-B7B555550BF9}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2028,6 +2038,21 @@
       <c r="P9">
         <v>4.0999999999999996</v>
       </c>
+      <c r="R9">
+        <v>4.7</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>3.6</v>
+      </c>
+      <c r="U9">
+        <v>3.7</v>
+      </c>
+      <c r="V9">
+        <v>3.7</v>
+      </c>
       <c r="AJ9" t="s">
         <v>56</v>
       </c>
@@ -2090,7 +2115,7 @@
       </c>
       <c r="AK10">
         <f>AVERAGE(F9:V9)</f>
-        <v>4.25</v>
+        <v>4.1466666666666674</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2111,6 +2136,9 @@
       <c r="L14">
         <v>28.8</v>
       </c>
+      <c r="R14">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
@@ -2146,6 +2174,21 @@
       <c r="P15">
         <v>39.6</v>
       </c>
+      <c r="R15">
+        <v>40.1</v>
+      </c>
+      <c r="S15">
+        <v>39.9</v>
+      </c>
+      <c r="T15">
+        <v>40</v>
+      </c>
+      <c r="U15">
+        <v>40.1</v>
+      </c>
+      <c r="V15">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
@@ -2180,6 +2223,21 @@
       </c>
       <c r="P16">
         <v>38.700000000000003</v>
+      </c>
+      <c r="R16">
+        <v>39.6</v>
+      </c>
+      <c r="S16">
+        <v>39.5</v>
+      </c>
+      <c r="T16">
+        <v>39.5</v>
+      </c>
+      <c r="U16">
+        <v>39.4</v>
+      </c>
+      <c r="V16">
+        <v>39.4</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -2269,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A93C3F-9CE4-472C-A150-02094E69676B}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2390,6 +2448,21 @@
       <c r="J9">
         <v>2.2000000000000002</v>
       </c>
+      <c r="L9">
+        <v>7.8</v>
+      </c>
+      <c r="M9">
+        <v>1.3</v>
+      </c>
+      <c r="N9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
       <c r="AJ9" t="s">
         <v>56</v>
       </c>
@@ -2452,7 +2525,7 @@
       </c>
       <c r="AK10">
         <f>AVERAGE(F9:V9)</f>
-        <v>2.5</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2491,6 +2564,21 @@
       <c r="J13">
         <v>1</v>
       </c>
+      <c r="L13">
+        <v>14.4</v>
+      </c>
+      <c r="M13">
+        <v>2.8</v>
+      </c>
+      <c r="N13">
+        <v>2.4</v>
+      </c>
+      <c r="O13">
+        <v>2.5</v>
+      </c>
+      <c r="P13">
+        <v>2.4</v>
+      </c>
       <c r="AJ13" t="s">
         <v>56</v>
       </c>
@@ -2553,7 +2641,7 @@
       </c>
       <c r="AK14">
         <f>AVERAGE(F13:V13)</f>
-        <v>4.3600000000000003</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -2592,6 +2680,21 @@
       <c r="J17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>12.1</v>
+      </c>
+      <c r="M17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2.1</v>
+      </c>
+      <c r="P17">
+        <v>1.5</v>
+      </c>
       <c r="AJ17" t="s">
         <v>56</v>
       </c>
@@ -2654,7 +2757,7 @@
       </c>
       <c r="AK18">
         <f>AVERAGE(F17:V17)</f>
-        <v>4.1800000000000006</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
@@ -2672,6 +2775,9 @@
       <c r="F21">
         <v>33.5</v>
       </c>
+      <c r="L21">
+        <v>33.200000000000003</v>
+      </c>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
@@ -2692,6 +2798,21 @@
       <c r="J22" s="8">
         <v>54.2</v>
       </c>
+      <c r="L22">
+        <v>53.6</v>
+      </c>
+      <c r="M22">
+        <v>55.8</v>
+      </c>
+      <c r="N22">
+        <v>55.8</v>
+      </c>
+      <c r="O22">
+        <v>55.7</v>
+      </c>
+      <c r="P22">
+        <v>54.6</v>
+      </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
@@ -2712,6 +2833,21 @@
       <c r="J23" s="8">
         <v>53.9</v>
       </c>
+      <c r="L23">
+        <v>53.2</v>
+      </c>
+      <c r="M23">
+        <v>55.5</v>
+      </c>
+      <c r="N23">
+        <v>55.5</v>
+      </c>
+      <c r="O23">
+        <v>54.4</v>
+      </c>
+      <c r="P23">
+        <v>54.4</v>
+      </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="F24" s="8"/>
@@ -2727,6 +2863,9 @@
       <c r="F25" s="8">
         <v>33.1</v>
       </c>
+      <c r="L25">
+        <v>33.700000000000003</v>
+      </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
@@ -2747,6 +2886,21 @@
       <c r="J26">
         <v>60.1</v>
       </c>
+      <c r="L26">
+        <v>63.2</v>
+      </c>
+      <c r="M26">
+        <v>63.5</v>
+      </c>
+      <c r="N26">
+        <v>63.3</v>
+      </c>
+      <c r="O26">
+        <v>63.4</v>
+      </c>
+      <c r="P26">
+        <v>63.3</v>
+      </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
@@ -2767,6 +2921,21 @@
       <c r="J27">
         <v>59.8</v>
       </c>
+      <c r="L27">
+        <v>62.8</v>
+      </c>
+      <c r="M27">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <v>62.7</v>
+      </c>
+      <c r="O27">
+        <v>62.7</v>
+      </c>
+      <c r="P27">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -2778,6 +2947,9 @@
       <c r="F29">
         <v>33.1</v>
       </c>
+      <c r="L29">
+        <v>33.700000000000003</v>
+      </c>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
@@ -2798,6 +2970,21 @@
       <c r="J30">
         <v>59.1</v>
       </c>
+      <c r="L30">
+        <v>60.4</v>
+      </c>
+      <c r="M30">
+        <v>60.2</v>
+      </c>
+      <c r="N30">
+        <v>60.2</v>
+      </c>
+      <c r="O30">
+        <v>60.3</v>
+      </c>
+      <c r="P30">
+        <v>60.2</v>
+      </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
@@ -2817,6 +3004,21 @@
       </c>
       <c r="J31">
         <v>58.1</v>
+      </c>
+      <c r="L31">
+        <v>59.2</v>
+      </c>
+      <c r="M31">
+        <v>59.2</v>
+      </c>
+      <c r="N31">
+        <v>59.2</v>
+      </c>
+      <c r="O31">
+        <v>59.4</v>
+      </c>
+      <c r="P31">
+        <v>59.2</v>
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.25">
@@ -2890,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B91366-1B92-4F25-9664-0B3ABCEE959A}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3452,7 +3654,7 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3528,6 +3730,12 @@
       <c r="F7" t="s">
         <v>48</v>
       </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -3539,6 +3747,12 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -3547,6 +3761,12 @@
       <c r="F9" s="8">
         <v>18.7</v>
       </c>
+      <c r="G9" s="8">
+        <v>14.8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>15.1</v>
+      </c>
       <c r="AJ9" t="s">
         <v>56</v>
       </c>
@@ -3562,12 +3782,18 @@
       <c r="F10">
         <v>11.1</v>
       </c>
+      <c r="G10">
+        <v>10.6</v>
+      </c>
+      <c r="H10">
+        <v>10.199999999999999</v>
+      </c>
       <c r="AJ10" t="s">
         <v>57</v>
       </c>
       <c r="AK10">
         <f>AVERAGE(F9:V9)</f>
-        <v>18.7</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3577,6 +3803,12 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -3593,6 +3825,12 @@
       <c r="F14">
         <v>75.2</v>
       </c>
+      <c r="G14">
+        <v>74.3</v>
+      </c>
+      <c r="H14">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
@@ -3601,7 +3839,12 @@
       <c r="F15" s="8">
         <v>79.8</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>78.3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>79.099999999999994</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
@@ -3610,6 +3853,12 @@
       <c r="F16" s="8">
         <v>79.2</v>
       </c>
+      <c r="G16" s="8">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="H16" s="8">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
@@ -3617,6 +3866,12 @@
       </c>
       <c r="F17" s="8">
         <v>78.8</v>
+      </c>
+      <c r="G17" s="8">
+        <v>75.8</v>
+      </c>
+      <c r="H17" s="8">
+        <v>76.7</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -3706,8 +3961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9030F4-5B4B-4DD1-B83D-460D67F799F5}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3783,6 +4038,12 @@
       <c r="F7" t="s">
         <v>48</v>
       </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -3794,6 +4055,12 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -3802,6 +4069,12 @@
       <c r="F9" s="8">
         <v>19.8</v>
       </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>14.7</v>
+      </c>
       <c r="AJ9" t="s">
         <v>56</v>
       </c>
@@ -3817,12 +4090,18 @@
       <c r="F10">
         <v>11</v>
       </c>
+      <c r="G10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H10">
+        <v>9.6</v>
+      </c>
       <c r="AJ10" t="s">
         <v>57</v>
       </c>
       <c r="AK10">
         <f>AVERAGE(F9:V9)</f>
-        <v>19.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3832,6 +4111,12 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -3848,6 +4133,12 @@
       <c r="F14">
         <v>60.1</v>
       </c>
+      <c r="G14">
+        <v>59.1</v>
+      </c>
+      <c r="H14">
+        <v>59.4</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
@@ -3856,7 +4147,12 @@
       <c r="F15" s="8">
         <v>62.3</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="H15">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
@@ -3865,6 +4161,12 @@
       <c r="F16" s="8">
         <v>61.5</v>
       </c>
+      <c r="G16" s="8">
+        <v>60.8</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
@@ -3872,6 +4174,12 @@
       </c>
       <c r="F17" s="8">
         <v>61.1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>60.3</v>
+      </c>
+      <c r="H17">
+        <v>59.7</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -3953,6 +4261,7 @@
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A4:M4"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7573,10 +7882,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA045C6-FD2B-3049-82A0-B480A11E664A}">
-  <dimension ref="A1:AR111"/>
+  <dimension ref="A1:AR113"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="H55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7730,65 +8039,56 @@
         <v>51</v>
       </c>
       <c r="F9" s="8">
-        <v>9.6999999999999993</v>
+        <v>22.1</v>
       </c>
       <c r="G9">
+        <v>2.9</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
+        <v>3.8</v>
+      </c>
+      <c r="J9">
+        <v>2.9</v>
+      </c>
+      <c r="L9">
+        <v>23.7</v>
+      </c>
+      <c r="M9">
+        <v>4.8</v>
+      </c>
+      <c r="N9">
+        <v>2.8</v>
+      </c>
+      <c r="O9">
         <v>0.9</v>
       </c>
-      <c r="I9">
+      <c r="P9">
+        <v>1.9</v>
+      </c>
+      <c r="R9">
+        <v>24.1</v>
+      </c>
+      <c r="S9">
+        <v>3.6</v>
+      </c>
+      <c r="T9">
+        <v>1.8</v>
+      </c>
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0.9</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0.9</v>
-      </c>
       <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>9.9</v>
-      </c>
-      <c r="Z9">
-        <v>9.1</v>
-      </c>
-      <c r="AB9">
-        <v>7.4</v>
-      </c>
-      <c r="AD9">
-        <v>9.9</v>
-      </c>
-      <c r="AF9">
-        <v>8.1</v>
+        <v>3.4</v>
       </c>
       <c r="AJ9" t="s">
         <v>56</v>
       </c>
       <c r="AK9">
         <f>AVERAGE(X9:AF9,F9)</f>
-        <v>9.0166666666666657</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -7860,7 +8160,7 @@
       </c>
       <c r="AK10">
         <f>AVERAGE(F9:V9)</f>
-        <v>1.6461538461538461</v>
+        <v>6.7133333333333338</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -7870,23 +8170,112 @@
       <c r="E11" t="s">
         <v>55</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>1.3</v>
+      </c>
+      <c r="J12">
+        <v>1.4</v>
+      </c>
+      <c r="L12">
+        <v>8.9</v>
+      </c>
+      <c r="M12">
+        <v>0.9</v>
+      </c>
+      <c r="N12">
+        <v>1.2</v>
+      </c>
+      <c r="O12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.9</v>
+      </c>
+      <c r="R12">
+        <v>11.2</v>
+      </c>
+      <c r="S12">
+        <v>1.3</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1.4</v>
+      </c>
+      <c r="V12">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -7903,6 +8292,39 @@
       <c r="E15" t="s">
         <v>51</v>
       </c>
+      <c r="F15" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="G15">
+        <v>0.6</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>0.7</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S15">
+        <v>0.9</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.8</v>
+      </c>
+      <c r="V15">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
@@ -7938,6 +8360,21 @@
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -8068,16 +8505,115 @@
       <c r="E22" t="s">
         <v>55</v>
       </c>
+      <c r="F22">
+        <v>32.5</v>
+      </c>
+      <c r="L22">
+        <v>32.5</v>
+      </c>
+      <c r="R22">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>51</v>
       </c>
+      <c r="F23">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>51.1</v>
+      </c>
+      <c r="H23">
+        <v>51.4</v>
+      </c>
+      <c r="I23">
+        <v>51.5</v>
+      </c>
+      <c r="J23">
+        <v>51.5</v>
+      </c>
+      <c r="L23">
+        <v>51.2</v>
+      </c>
+      <c r="M23">
+        <v>51.4</v>
+      </c>
+      <c r="N23">
+        <v>51.4</v>
+      </c>
+      <c r="O23">
+        <v>51.5</v>
+      </c>
+      <c r="P23">
+        <v>51.4</v>
+      </c>
+      <c r="R23">
+        <v>51.1</v>
+      </c>
+      <c r="S23">
+        <v>51.4</v>
+      </c>
+      <c r="T23">
+        <v>51.6</v>
+      </c>
+      <c r="U23">
+        <v>51.4</v>
+      </c>
+      <c r="V23">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>52</v>
       </c>
+      <c r="F24">
+        <v>50.8</v>
+      </c>
+      <c r="G24">
+        <v>50.8</v>
+      </c>
+      <c r="H24">
+        <v>50.9</v>
+      </c>
+      <c r="I24">
+        <v>51.1</v>
+      </c>
+      <c r="J24">
+        <v>51</v>
+      </c>
+      <c r="L24">
+        <v>51</v>
+      </c>
+      <c r="M24">
+        <v>51.1</v>
+      </c>
+      <c r="N24">
+        <v>51.1</v>
+      </c>
+      <c r="O24">
+        <v>51.2</v>
+      </c>
+      <c r="P24">
+        <v>51.2</v>
+      </c>
+      <c r="R24">
+        <v>51</v>
+      </c>
+      <c r="S24">
+        <v>51.1</v>
+      </c>
+      <c r="T24">
+        <v>51.1</v>
+      </c>
+      <c r="U24">
+        <v>51.2</v>
+      </c>
+      <c r="V24">
+        <v>51.2</v>
+      </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
@@ -8086,16 +8622,94 @@
       <c r="E25" t="s">
         <v>55</v>
       </c>
+      <c r="F25">
+        <v>32.5</v>
+      </c>
+      <c r="L25">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="R25">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>51</v>
       </c>
+      <c r="F26">
+        <v>51.2</v>
+      </c>
+      <c r="G26">
+        <v>51.2</v>
+      </c>
+      <c r="H26">
+        <v>51.4</v>
+      </c>
+      <c r="I26">
+        <v>51.4</v>
+      </c>
+      <c r="J26">
+        <v>51.4</v>
+      </c>
+      <c r="L26">
+        <v>50.9</v>
+      </c>
+      <c r="M26">
+        <v>51.3</v>
+      </c>
+      <c r="R26">
+        <v>50.9</v>
+      </c>
+      <c r="S26">
+        <v>51.1</v>
+      </c>
+      <c r="T26">
+        <v>51.4</v>
+      </c>
+      <c r="U26">
+        <v>51.4</v>
+      </c>
+      <c r="V26">
+        <v>51.3</v>
+      </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>52</v>
       </c>
+      <c r="F27">
+        <v>50.8</v>
+      </c>
+      <c r="G27">
+        <v>50.8</v>
+      </c>
+      <c r="H27">
+        <v>51.1</v>
+      </c>
+      <c r="I27">
+        <v>51.1</v>
+      </c>
+      <c r="J27">
+        <v>51.2</v>
+      </c>
+      <c r="L27">
+        <v>50.8</v>
+      </c>
+      <c r="R27">
+        <v>50.8</v>
+      </c>
+      <c r="S27">
+        <v>50.9</v>
+      </c>
+      <c r="T27">
+        <v>51</v>
+      </c>
+      <c r="U27">
+        <v>51.1</v>
+      </c>
+      <c r="V27">
+        <v>51.1</v>
+      </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -8108,138 +8722,236 @@
       </c>
       <c r="F30" s="9">
         <f>F40</f>
-        <v>1.8171296296554118E-6</v>
+        <v>1.0000044791666667</v>
       </c>
       <c r="G30" s="9">
         <f>G40</f>
-        <v>8.10185185051715E-8</v>
+        <v>1.0000002893518518</v>
       </c>
       <c r="H30" s="9">
         <f>H40</f>
-        <v>1.2731481485728224E-7</v>
+        <v>1.0000000925925927</v>
       </c>
       <c r="I30" s="9">
         <f>I40</f>
-        <v>1.0416666668122687E-7</v>
+        <v>1.0000000925925927</v>
       </c>
       <c r="J30" s="9">
         <f>J40</f>
-        <v>1.1574074076925456E-7</v>
+        <v>1.0000001157407408</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9">
         <f t="shared" ref="L30:P30" si="0">L40</f>
-        <v>1.8634259259520114E-6</v>
+        <v>1.0000043171296296</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="0"/>
-        <v>1.0416666662571572E-7</v>
+        <v>1.0000001967592593</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="0"/>
-        <v>9.2592592593199186E-8</v>
+        <v>1.0000001620370371</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="0"/>
-        <v>9.2592592537688034E-8</v>
+        <v>1.0000000925925927</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="0"/>
-        <v>8.1018518560682651E-8</v>
+        <v>1.0000001041666668</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9">
         <f t="shared" ref="R30:V30" si="1">R40</f>
-        <v>1.8750000000400391E-6</v>
+        <v>1.0000042708333334</v>
       </c>
       <c r="S30" s="9">
         <f t="shared" si="1"/>
-        <v>9.2592592648710337E-8</v>
+        <v>1.0000001041666668</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="1"/>
-        <v>9.2592592537688034E-8</v>
+        <v>1.0000001041666666</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="1"/>
-        <v>1.0416666668122687E-7</v>
+        <v>1.0000001157407408</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" si="1"/>
-        <v>6.9444444417143814E-8</v>
+        <v>1.0000001736111113</v>
       </c>
       <c r="W30" s="9"/>
       <c r="X30" s="9">
         <f>X40</f>
-        <v>1.8518518518639837E-6</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9">
         <f t="shared" ref="Z30" si="2">Z40</f>
-        <v>1.9212962963366387E-6</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9">
         <f t="shared" ref="AB30" si="3">AB40</f>
-        <v>1.8171296296554118E-6</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9">
         <f t="shared" ref="AD30" si="4">AD40</f>
-        <v>1.8518518518639837E-6</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="9"/>
       <c r="AF30" s="9">
         <f t="shared" ref="AF30" si="5">AF40</f>
-        <v>1.840277777775956E-6</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="9"/>
       <c r="AJ30" s="9">
         <f>AVERAGE(X30:AF30)</f>
-        <v>1.8564814814991948E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="F31" s="9">
+        <f>F40</f>
+        <v>1.0000044791666667</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" ref="G31:J31" si="6">G40</f>
+        <v>1.0000002893518518</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000001157407408</v>
+      </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+      <c r="L31" s="9">
+        <f t="shared" ref="L31:W31" si="7">L40</f>
+        <v>1.0000043171296296</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="7"/>
+        <v>1.0000001967592593</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="7"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="7"/>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="7"/>
+        <v>1.0000001041666668</v>
+      </c>
       <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="1"/>
+      <c r="R31" s="9">
+        <f t="shared" ref="R31:W31" si="8">R40</f>
+        <v>1.0000042708333334</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="8"/>
+        <v>1.0000001041666668</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="8"/>
+        <v>1.0000001041666666</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="8"/>
+        <v>1.0000001157407408</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="8"/>
+        <v>1.0000001736111113</v>
+      </c>
+      <c r="W31" s="9"/>
       <c r="AJ31" s="9">
         <f>AVERAGE(G30:V30)</f>
-        <v>3.4970238095764573E-7</v>
+        <v>1.000000730820106</v>
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="F32" s="9">
+        <f>F48</f>
+        <v>1.0000005092592592</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" ref="G32:J32" si="9">G48</f>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="9"/>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="9"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="9"/>
+        <v>1.0000001273148147</v>
+      </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="L32" s="9">
+        <f t="shared" ref="L32:W32" si="10">L48</f>
+        <v>1.0000005671296297</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="10"/>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="10"/>
+        <v>1.0000000810185186</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="10"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="10"/>
+        <v>1.0000001273148149</v>
+      </c>
       <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="1"/>
+      <c r="R32" s="9">
+        <f t="shared" ref="R32:W32" si="11">R48</f>
+        <v>1.0000005787037036</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" si="11"/>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="11"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="11"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="11"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="4:44" x14ac:dyDescent="0.25">
       <c r="F33" s="9"/>
@@ -8286,72 +8998,62 @@
         <v>63</v>
       </c>
       <c r="F38" s="1">
-        <v>0.3559502083333333</v>
+        <v>0.40436203703703705</v>
       </c>
       <c r="G38" s="1">
-        <v>0.35683862268518518</v>
+        <v>0.40440694444444447</v>
       </c>
       <c r="H38" s="1">
-        <v>0.35725701388888886</v>
+        <v>0.40443804398148148</v>
       </c>
       <c r="I38" s="1">
-        <v>0.357607037037037</v>
+        <v>0.40446598379629628</v>
       </c>
       <c r="J38" s="1">
-        <v>0.35796776620370369</v>
+        <v>0.40449237268518518</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <v>0.35149019675925924</v>
+        <v>0.4059767592592593</v>
       </c>
       <c r="M38" s="1">
-        <v>0.35270542824074075</v>
+        <v>0.40600946759259254</v>
       </c>
       <c r="N38" s="1">
-        <v>0.35292085648148147</v>
+        <v>0.40603560185185184</v>
       </c>
       <c r="O38" s="1">
-        <v>0.35340409722222227</v>
+        <v>0.40606590277777777</v>
       </c>
       <c r="P38" s="1">
-        <v>0.35401651620370367</v>
+        <v>0.4061009606481481</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1">
-        <v>0.37223418981481476</v>
+        <v>0.40790569444444441</v>
       </c>
       <c r="S38" s="1">
-        <v>0.37340824074074069</v>
+        <v>0.40792718749999995</v>
       </c>
       <c r="T38" s="1">
-        <v>0.37367940972222224</v>
+        <v>0.40795887731481484</v>
       </c>
       <c r="U38" s="1">
-        <v>0.37389468749999999</v>
+        <v>0.40798954861111114</v>
       </c>
       <c r="V38" s="1">
-        <v>0.37416364583333334</v>
+        <v>0.40802278935185182</v>
       </c>
       <c r="W38" s="1"/>
-      <c r="X38" s="1">
-        <v>0.37994710648148144</v>
-      </c>
+      <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="1">
-        <v>0.3794711458333333</v>
-      </c>
+      <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="1">
-        <v>0.37842219907407409</v>
-      </c>
+      <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1">
-        <v>0.37721759259259263</v>
-      </c>
+      <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="1">
-        <v>0.37604607638888887</v>
-      </c>
+      <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -8370,72 +9072,62 @@
         <v>64</v>
       </c>
       <c r="F39" s="1">
-        <v>0.35595202546296295</v>
+        <v>0.40436651620370373</v>
       </c>
       <c r="G39" s="1">
-        <v>0.35683870370370369</v>
+        <v>0.40440723379629628</v>
       </c>
       <c r="H39" s="1">
-        <v>0.35725714120370372</v>
+        <v>0.40443813657407407</v>
       </c>
       <c r="I39" s="1">
-        <v>0.35760714120370368</v>
+        <v>0.40446607638888893</v>
       </c>
       <c r="J39" s="1">
-        <v>0.35796788194444445</v>
+        <v>0.40449248842592594</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <v>0.3514920601851852</v>
+        <v>0.40598107638888892</v>
       </c>
       <c r="M39" s="1">
-        <v>0.35270553240740737</v>
+        <v>0.40600966435185182</v>
       </c>
       <c r="N39" s="1">
-        <v>0.35292094907407406</v>
+        <v>0.4060357638888889</v>
       </c>
       <c r="O39" s="1">
-        <v>0.35340418981481481</v>
+        <v>0.40606599537037041</v>
       </c>
       <c r="P39" s="1">
-        <v>0.35401659722222223</v>
+        <v>0.40610106481481484</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1">
-        <v>0.3722360648148148</v>
+        <v>0.40790996527777779</v>
       </c>
       <c r="S39" s="1">
-        <v>0.37340833333333334</v>
+        <v>0.40792729166666669</v>
       </c>
       <c r="T39" s="1">
-        <v>0.37367950231481478</v>
+        <v>0.40795898148148146</v>
       </c>
       <c r="U39" s="1">
-        <v>0.37389479166666667</v>
+        <v>0.40798966435185186</v>
       </c>
       <c r="V39" s="1">
-        <v>0.37416371527777775</v>
+        <v>0.40802296296296298</v>
       </c>
       <c r="W39" s="1"/>
-      <c r="X39" s="1">
-        <v>0.37994895833333331</v>
-      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="1">
-        <v>0.37947306712962964</v>
-      </c>
+      <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1">
-        <v>0.37842401620370375</v>
-      </c>
+      <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1">
-        <v>0.3772194444444445</v>
-      </c>
+      <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="1">
-        <v>0.37604791666666665</v>
-      </c>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
@@ -8453,92 +9145,77 @@
         <v>65</v>
       </c>
       <c r="F40" s="1">
-        <f>F39-F38+(F38&gt;F39)</f>
-        <v>1.8171296296554118E-6</v>
+        <f>F39-F38+(F39&gt;F38)</f>
+        <v>1.0000044791666667</v>
       </c>
       <c r="G40" s="1">
-        <f>G39-G38+(G38&gt;G39)</f>
-        <v>8.10185185051715E-8</v>
+        <f t="shared" ref="G40:J40" si="12">G39-G38+(G39&gt;G38)</f>
+        <v>1.0000002893518518</v>
       </c>
       <c r="H40" s="1">
-        <f>H39-H38+(H38&gt;H39)</f>
-        <v>1.2731481485728224E-7</v>
+        <f t="shared" si="12"/>
+        <v>1.0000000925925927</v>
       </c>
       <c r="I40" s="1">
-        <f>I39-I38+(I38&gt;I39)</f>
-        <v>1.0416666668122687E-7</v>
+        <f t="shared" si="12"/>
+        <v>1.0000000925925927</v>
       </c>
       <c r="J40" s="1">
-        <f>J39-J38+(J38&gt;J39)</f>
-        <v>1.1574074076925456E-7</v>
+        <f t="shared" si="12"/>
+        <v>1.0000001157407408</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f>L39-L38+(L38&gt;L39)</f>
-        <v>1.8634259259520114E-6</v>
+        <f t="shared" ref="L40" si="13">L39-L38+(L39&gt;L38)</f>
+        <v>1.0000043171296296</v>
       </c>
       <c r="M40" s="1">
-        <f>M39-M38+(M38&gt;M39)</f>
-        <v>1.0416666662571572E-7</v>
+        <f t="shared" ref="M40" si="14">M39-M38+(M39&gt;M38)</f>
+        <v>1.0000001967592593</v>
       </c>
       <c r="N40" s="1">
-        <f>N39-N38+(N38&gt;N39)</f>
-        <v>9.2592592593199186E-8</v>
+        <f t="shared" ref="N40" si="15">N39-N38+(N39&gt;N38)</f>
+        <v>1.0000001620370371</v>
       </c>
       <c r="O40" s="1">
-        <f>O39-O38+(O38&gt;O39)</f>
-        <v>9.2592592537688034E-8</v>
+        <f t="shared" ref="O40" si="16">O39-O38+(O39&gt;O38)</f>
+        <v>1.0000000925925927</v>
       </c>
       <c r="P40" s="1">
-        <f>P39-P38+(P38&gt;P39)</f>
-        <v>8.1018518560682651E-8</v>
+        <f t="shared" ref="P40" si="17">P39-P38+(P39&gt;P38)</f>
+        <v>1.0000001041666668</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1">
-        <f>R39-R38+(R38&gt;R39)</f>
-        <v>1.8750000000400391E-6</v>
+        <f t="shared" ref="R40" si="18">R39-R38+(R39&gt;R38)</f>
+        <v>1.0000042708333334</v>
       </c>
       <c r="S40" s="1">
-        <f>S39-S38+(S38&gt;S39)</f>
-        <v>9.2592592648710337E-8</v>
+        <f t="shared" ref="S40" si="19">S39-S38+(S39&gt;S38)</f>
+        <v>1.0000001041666668</v>
       </c>
       <c r="T40" s="1">
-        <f>T39-T38+(T38&gt;T39)</f>
-        <v>9.2592592537688034E-8</v>
+        <f t="shared" ref="T40" si="20">T39-T38+(T39&gt;T38)</f>
+        <v>1.0000001041666666</v>
       </c>
       <c r="U40" s="1">
-        <f>U39-U38+(U38&gt;U39)</f>
-        <v>1.0416666668122687E-7</v>
+        <f t="shared" ref="U40" si="21">U39-U38+(U39&gt;U38)</f>
+        <v>1.0000001157407408</v>
       </c>
       <c r="V40" s="1">
-        <f>V39-V38+(V38&gt;V39)</f>
-        <v>6.9444444417143814E-8</v>
+        <f t="shared" ref="V40" si="22">V39-V38+(V39&gt;V38)</f>
+        <v>1.0000001736111113</v>
       </c>
       <c r="W40" s="1"/>
-      <c r="X40" s="1">
-        <f>X39-X38+(X38&gt;X39)</f>
-        <v>1.8518518518639837E-6</v>
-      </c>
+      <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
-      <c r="Z40" s="1">
-        <f t="shared" ref="Z40" si="6">Z39-Z38+(Z38&gt;Z39)</f>
-        <v>1.9212962963366387E-6</v>
-      </c>
+      <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="1">
-        <f t="shared" ref="AB40" si="7">AB39-AB38+(AB38&gt;AB39)</f>
-        <v>1.8171296296554118E-6</v>
-      </c>
+      <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="1">
-        <f t="shared" ref="AD40" si="8">AD39-AD38+(AD38&gt;AD39)</f>
-        <v>1.8518518518639837E-6</v>
-      </c>
+      <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="1">
-        <f t="shared" ref="AF40" si="9">AF39-AF38+(AF38&gt;AF39)</f>
-        <v>1.840277777775956E-6</v>
-      </c>
+      <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
@@ -8562,238 +9239,1937 @@
       <c r="E42" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="F42" s="1">
+        <v>0.41288478009259261</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.41291653935185185</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.41293454861111112</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.41295127314814817</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.41297245370370367</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.41574054398148147</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.41576020833333333</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.41578559027777778</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.41580493055555556</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.41582740740740737</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.4182018287037037</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.41822325231481483</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.41824600694444447</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.41826925925925923</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0.41829244212962963</v>
+      </c>
     </row>
     <row r="43" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="F43" s="1">
+        <v>0.41288550925925921</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.41291663194444445</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.41293462962962962</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.41295137731481479</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.4129725578703704</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.41574142361111116</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.41576028935185189</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.41578569444444446</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.41580508101851854</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.41582755787037035</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.41820256944444445</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.41822334490740737</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.41824609953703701</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.41826936342592597</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.41829253472222222</v>
+      </c>
     </row>
     <row r="44" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <f>F43-F42+(F43&gt;F42)</f>
+        <v>1.0000007291666666</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="G44:J44" si="23">G43-G42+(G43&gt;G42)</f>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0000000810185186</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0000001041666666</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0000001041666668</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" ref="L44" si="24">L43-L42+(L43&gt;L42)</f>
+        <v>1.0000008796296296</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" ref="M44" si="25">M43-M42+(M43&gt;M42)</f>
+        <v>1.0000000810185186</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44" si="26">N43-N42+(N43&gt;N42)</f>
+        <v>1.0000001041666666</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" ref="O44" si="27">O43-O42+(O43&gt;O42)</f>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" ref="P44" si="28">P43-P42+(P43&gt;P42)</f>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" ref="R44" si="29">R43-R42+(R43&gt;R42)</f>
+        <v>1.0000007407407407</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" ref="S44" si="30">S43-S42+(S43&gt;S42)</f>
+        <v>1.0000000925925925</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" ref="T44" si="31">T43-T42+(T43&gt;T42)</f>
+        <v>1.0000000925925925</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" ref="U44" si="32">U43-U42+(U43&gt;U42)</f>
+        <v>1.0000001041666668</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" ref="V44" si="33">V43-V42+(V43&gt;V42)</f>
+        <v>1.0000000925925927</v>
+      </c>
+    </row>
+    <row r="45" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.42221887731481483</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.42228049768518522</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.42229215277777782</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.42231303240740742</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.42232997685185186</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.42457364583333335</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.42458891203703703</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.42460741898148147</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.42462806712962964</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.42465196759259261</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.42598208333333337</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.42600454861111109</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0.42602357638888888</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.42604087962962961</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0.42606409722222222</v>
+      </c>
+    </row>
+    <row r="47" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.42221938657407404</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.42228063657407411</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.42229229166666665</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.42231319444444443</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.42233010416666666</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.42457421296296299</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.4245890625</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.42460750000000003</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.42462813657407406</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.42465209490740746</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.42598266203703705</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.42600469907407407</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0.4260236458333333</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.42604094907407403</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0.42606416666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="4:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="1">
+        <f>F47-F46+(F47&gt;F46)</f>
+        <v>1.0000005092592592</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ref="G48:J48" si="34">G47-G46+(G47&gt;G46)</f>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0000001273148147</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" ref="L48" si="35">L47-L46+(L47&gt;L46)</f>
+        <v>1.0000005671296297</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" ref="M48" si="36">M47-M46+(M47&gt;M46)</f>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" ref="N48" si="37">N47-N46+(N47&gt;N46)</f>
+        <v>1.0000000810185186</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" ref="O48" si="38">O47-O46+(O47&gt;O46)</f>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" ref="P48" si="39">P47-P46+(P47&gt;P46)</f>
+        <v>1.0000001273148149</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" ref="R48" si="40">R47-R46+(R47&gt;R46)</f>
+        <v>1.0000005787037036</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" ref="S48" si="41">S47-S46+(S47&gt;S46)</f>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" ref="T48" si="42">T47-T46+(T47&gt;T46)</f>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" ref="U48" si="43">U47-U46+(U47&gt;U46)</f>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" ref="V48" si="44">V47-V46+(V47&gt;V46)</f>
+        <v>1.0000000694444444</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" t="s">
+        <v>49</v>
+      </c>
+      <c r="R53" t="s">
+        <v>50</v>
+      </c>
+      <c r="X53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0.9</v>
+      </c>
+      <c r="J55">
+        <v>0.9</v>
+      </c>
+      <c r="L55">
+        <v>9.5</v>
+      </c>
+      <c r="M55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0.9</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>8.6</v>
+      </c>
+      <c r="S55">
+        <v>0.9</v>
+      </c>
+      <c r="T55">
+        <v>0.9</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK55">
+        <f>AVERAGE(X55:AF55,F55)</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK56">
+        <f>AVERAGE(F55:V55)</f>
+        <v>2.6733333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1.5</v>
+      </c>
+      <c r="I58">
+        <v>0.9</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>7.4</v>
+      </c>
+      <c r="M58">
+        <v>0.9</v>
+      </c>
+      <c r="N58">
+        <v>2.1</v>
+      </c>
+      <c r="O58">
+        <v>1.7</v>
+      </c>
+      <c r="P58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R58">
+        <v>6.9</v>
+      </c>
+      <c r="S58">
+        <v>0.8</v>
+      </c>
+      <c r="T58">
+        <v>1.2</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="G61">
+        <v>0.8</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0.9</v>
+      </c>
+      <c r="J61">
+        <v>0.9</v>
+      </c>
+      <c r="L61">
+        <v>5.5</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0.9</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>6.4</v>
+      </c>
+      <c r="S61">
+        <v>0.8</v>
+      </c>
+      <c r="T61">
+        <v>0.9</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="L65">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="R65">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="G66" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="H66">
+        <v>53.3</v>
+      </c>
+      <c r="I66">
+        <v>53.2</v>
+      </c>
+      <c r="J66">
+        <v>53.3</v>
+      </c>
+      <c r="L66">
+        <v>53.2</v>
+      </c>
+      <c r="M66">
+        <v>53.3</v>
+      </c>
+      <c r="N66">
+        <v>53.3</v>
+      </c>
+      <c r="O66">
+        <v>53.1</v>
+      </c>
+      <c r="P66">
+        <v>53.3</v>
+      </c>
+      <c r="R66">
+        <v>53.1</v>
+      </c>
+      <c r="S66">
+        <v>53.2</v>
+      </c>
+      <c r="T66">
+        <v>53.3</v>
+      </c>
+      <c r="U66">
+        <v>53.3</v>
+      </c>
+      <c r="V66">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="8">
+        <v>52.8</v>
+      </c>
+      <c r="G67">
+        <v>52.9</v>
+      </c>
+      <c r="H67">
+        <v>52.9</v>
+      </c>
+      <c r="I67">
+        <v>53</v>
+      </c>
+      <c r="J67">
+        <v>53</v>
+      </c>
+      <c r="L67">
+        <v>52.8</v>
+      </c>
+      <c r="M67">
+        <v>52.9</v>
+      </c>
+      <c r="N67">
+        <v>52.9</v>
+      </c>
+      <c r="O67">
+        <v>52.9</v>
+      </c>
+      <c r="P67">
+        <v>53</v>
+      </c>
+      <c r="R67">
+        <v>52.8</v>
+      </c>
+      <c r="S67">
+        <v>52.8</v>
+      </c>
+      <c r="T67">
+        <v>53</v>
+      </c>
+      <c r="U67">
+        <v>52.9</v>
+      </c>
+      <c r="V67">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="L68">
+        <v>33</v>
+      </c>
+      <c r="R68">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="8">
+        <v>52.7</v>
+      </c>
+      <c r="G69">
+        <v>52.3</v>
+      </c>
+      <c r="H69">
+        <v>52.3</v>
+      </c>
+      <c r="I69">
+        <v>52.3</v>
+      </c>
+      <c r="J69">
+        <v>52.2</v>
+      </c>
+      <c r="L69">
+        <v>53.1</v>
+      </c>
+      <c r="M69">
+        <v>53.2</v>
+      </c>
+      <c r="N69">
+        <v>53.2</v>
+      </c>
+      <c r="O69">
+        <v>53</v>
+      </c>
+      <c r="P69">
+        <v>53</v>
+      </c>
+      <c r="R69">
+        <v>52.8</v>
+      </c>
+      <c r="S69">
+        <v>53.1</v>
+      </c>
+      <c r="T69">
+        <v>53.1</v>
+      </c>
+      <c r="U69">
+        <v>53</v>
+      </c>
+      <c r="V69">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="8">
+        <v>52</v>
+      </c>
+      <c r="G70">
+        <v>52.1</v>
+      </c>
+      <c r="H70">
+        <v>52.1</v>
+      </c>
+      <c r="I70">
+        <v>52.1</v>
+      </c>
+      <c r="J70">
+        <v>52</v>
+      </c>
+      <c r="L70">
+        <v>52.8</v>
+      </c>
+      <c r="M70">
+        <v>53</v>
+      </c>
+      <c r="N70">
+        <v>52.7</v>
+      </c>
+      <c r="O70">
+        <v>52.8</v>
+      </c>
+      <c r="P70">
+        <v>52.8</v>
+      </c>
+      <c r="R70">
+        <v>52.6</v>
+      </c>
+      <c r="S70">
+        <v>52.8</v>
+      </c>
+      <c r="T70">
+        <v>52.7</v>
+      </c>
+      <c r="U70">
+        <v>52.7</v>
+      </c>
+      <c r="V70">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="L71">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R71">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="8">
+        <v>54.3</v>
+      </c>
+      <c r="G72">
+        <v>54.4</v>
+      </c>
+      <c r="H72">
+        <v>54.3</v>
+      </c>
+      <c r="I72">
+        <v>54.2</v>
+      </c>
+      <c r="J72">
+        <v>54.2</v>
+      </c>
+      <c r="L72">
+        <v>54.1</v>
+      </c>
+      <c r="M72">
+        <v>54</v>
+      </c>
+      <c r="N72">
+        <v>53.9</v>
+      </c>
+      <c r="O72">
+        <v>54.1</v>
+      </c>
+      <c r="P72">
+        <v>54</v>
+      </c>
+      <c r="R72">
+        <v>54</v>
+      </c>
+      <c r="S72">
+        <v>54</v>
+      </c>
+      <c r="T72">
+        <v>54.1</v>
+      </c>
+      <c r="U72">
+        <v>54</v>
+      </c>
+      <c r="V72">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="8">
+        <v>54.2</v>
+      </c>
+      <c r="G73">
+        <v>53.9</v>
+      </c>
+      <c r="H73">
+        <v>54</v>
+      </c>
+      <c r="I73">
+        <v>53.9</v>
+      </c>
+      <c r="J73">
+        <v>54</v>
+      </c>
+      <c r="L73">
+        <v>53.8</v>
+      </c>
+      <c r="M73">
+        <v>53.7</v>
+      </c>
+      <c r="N73">
+        <v>53.7</v>
+      </c>
+      <c r="O73">
+        <v>53.8</v>
+      </c>
+      <c r="P73">
+        <v>53.8</v>
+      </c>
+      <c r="R73">
+        <v>53.7</v>
+      </c>
+      <c r="S73">
+        <v>53.8</v>
+      </c>
+      <c r="T73">
+        <v>53.8</v>
+      </c>
+      <c r="U73">
+        <v>53.7</v>
+      </c>
+      <c r="V73">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="9">
+        <f>F86</f>
+        <v>1.0000027777777778</v>
+      </c>
+      <c r="G76" s="9">
+        <f>G86</f>
+        <v>1.0000002662037037</v>
+      </c>
+      <c r="H76" s="9">
+        <f>H86</f>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="I76" s="9">
+        <f>I86</f>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="J76" s="9">
+        <f>J86</f>
+        <v>1.0000001851851852</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9">
+        <f t="shared" ref="L76:P76" si="45">L86</f>
+        <v>1.0000030092592593</v>
+      </c>
+      <c r="M76" s="9">
+        <f t="shared" si="45"/>
+        <v>1.0000002546296296</v>
+      </c>
+      <c r="N76" s="9">
+        <f t="shared" si="45"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="O76" s="9">
+        <f t="shared" si="45"/>
+        <v>1.0000001851851852</v>
+      </c>
+      <c r="P76" s="9">
+        <f t="shared" si="45"/>
+        <v>1.0000001736111113</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9">
+        <f t="shared" ref="R76:V76" si="46">R86</f>
+        <v>1.0000025694444443</v>
+      </c>
+      <c r="S76" s="9">
+        <f t="shared" si="46"/>
+        <v>1.0000000925925925</v>
+      </c>
+      <c r="T76" s="9">
+        <f t="shared" si="46"/>
+        <v>1.000000173611111</v>
+      </c>
+      <c r="U76" s="9">
+        <f t="shared" si="46"/>
+        <v>1.0000005902777778</v>
+      </c>
+      <c r="V76" s="9">
+        <f t="shared" si="46"/>
+        <v>1.0000002777777777</v>
+      </c>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9">
+        <f>X86</f>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9">
+        <f t="shared" ref="Z76" si="47">Z86</f>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9">
+        <f t="shared" ref="AB76" si="48">AB86</f>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9">
+        <f t="shared" ref="AD76" si="49">AD86</f>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9">
+        <f t="shared" ref="AF76" si="50">AF86</f>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="9"/>
+      <c r="AJ76" s="9">
+        <f>AVERAGE(X76:AF76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="9">
+        <f>F86</f>
+        <v>1.0000027777777778</v>
+      </c>
+      <c r="G77" s="9">
+        <f t="shared" ref="G77:J77" si="51">G86</f>
+        <v>1.0000002662037037</v>
+      </c>
+      <c r="H77" s="9">
+        <f t="shared" si="51"/>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="I77" s="9">
+        <f t="shared" si="51"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="51"/>
+        <v>1.0000001851851852</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9">
+        <f t="shared" ref="L77:W77" si="52">L86</f>
+        <v>1.0000030092592593</v>
+      </c>
+      <c r="M77" s="9">
+        <f t="shared" si="52"/>
+        <v>1.0000002546296296</v>
+      </c>
+      <c r="N77" s="9">
+        <f t="shared" si="52"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="O77" s="9">
+        <f t="shared" si="52"/>
+        <v>1.0000001851851852</v>
+      </c>
+      <c r="P77" s="9">
+        <f t="shared" si="52"/>
+        <v>1.0000001736111113</v>
+      </c>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9">
+        <f t="shared" ref="R77:W77" si="53">R86</f>
+        <v>1.0000025694444443</v>
+      </c>
+      <c r="S77" s="9">
+        <f t="shared" si="53"/>
+        <v>1.0000000925925925</v>
+      </c>
+      <c r="T77" s="9">
+        <f t="shared" si="53"/>
+        <v>1.000000173611111</v>
+      </c>
+      <c r="U77" s="9">
+        <f t="shared" si="53"/>
+        <v>1.0000005902777778</v>
+      </c>
+      <c r="V77" s="9">
+        <f t="shared" si="53"/>
+        <v>1.0000002777777777</v>
+      </c>
+      <c r="W77" s="9"/>
+      <c r="AJ77" s="9">
+        <f>AVERAGE(G76:V76)</f>
+        <v>1.0000005853174605</v>
+      </c>
+    </row>
+    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="9">
+        <f>F94</f>
+        <v>1.0000013773148149</v>
+      </c>
+      <c r="G78" s="9">
+        <f t="shared" ref="G78:J78" si="54">G94</f>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="H78" s="9">
+        <f t="shared" si="54"/>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="I78" s="9">
+        <f t="shared" si="54"/>
+        <v>1.0000000810185186</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="54"/>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9">
+        <f t="shared" ref="L78:W78" si="55">L94</f>
+        <v>1.0000012962962963</v>
+      </c>
+      <c r="M78" s="9">
+        <f t="shared" si="55"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="N78" s="9">
+        <f t="shared" si="55"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="O78" s="9">
+        <f t="shared" si="55"/>
+        <v>1.0000000578703703</v>
+      </c>
+      <c r="P78" s="9">
+        <f t="shared" si="55"/>
+        <v>1.0000001273148147</v>
+      </c>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9">
+        <f t="shared" ref="R78:W78" si="56">R94</f>
+        <v>1.0000012615740741</v>
+      </c>
+      <c r="S78" s="9">
+        <f t="shared" si="56"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="T78" s="9">
+        <f t="shared" si="56"/>
+        <v>1.0000001157407408</v>
+      </c>
+      <c r="U78" s="9">
+        <f t="shared" si="56"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="V78" s="9">
+        <f t="shared" si="56"/>
+        <v>1.0000001041666668</v>
+      </c>
+      <c r="W78" s="9"/>
+    </row>
+    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-    </row>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.4405486921296296</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.44061414351851852</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.44063513888888889</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.44065483796296295</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0.44067400462962963</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0.44264593750000003</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0.44266288194444448</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0.44267693287037035</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0.44268967592592595</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0.4427029282407407</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0.44500207175925927</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0.44502548611111115</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0.4450437615740741</v>
+      </c>
+      <c r="U84" s="1">
+        <v>0.44506229166666667</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0.44508503472222222</v>
+      </c>
+    </row>
+    <row r="85" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.4405514699074074</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.44061440972222221</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.44063523148148148</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.44065500000000002</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.44067418981481482</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0.44264894675925931</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.44266313657407408</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0.44267709490740742</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0.44268986111111114</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0.44270310185185185</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0.4450046412037037</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0.44502557870370368</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0.4450439351851852</v>
+      </c>
+      <c r="U85" s="1">
+        <v>0.44506288194444443</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0.4450853125</v>
+      </c>
+    </row>
+    <row r="86" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="1">
+        <f>F85-F84+(F85&gt;F84)</f>
+        <v>1.0000027777777778</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" ref="G86:J86" si="57">G85-G84+(G85&gt;G84)</f>
+        <v>1.0000002662037037</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="57"/>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="57"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="57"/>
+        <v>1.0000001851851852</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" ref="L86" si="58">L85-L84+(L85&gt;L84)</f>
+        <v>1.0000030092592593</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" ref="M86" si="59">M85-M84+(M85&gt;M84)</f>
+        <v>1.0000002546296296</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" ref="N86" si="60">N85-N84+(N85&gt;N84)</f>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" ref="O86" si="61">O85-O84+(O85&gt;O84)</f>
+        <v>1.0000001851851852</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" ref="P86" si="62">P85-P84+(P85&gt;P84)</f>
+        <v>1.0000001736111113</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" ref="R86" si="63">R85-R84+(R85&gt;R84)</f>
+        <v>1.0000025694444443</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" ref="S86" si="64">S85-S84+(S85&gt;S84)</f>
+        <v>1.0000000925925925</v>
+      </c>
+      <c r="T86" s="1">
+        <f t="shared" ref="T86" si="65">T85-T84+(T85&gt;T84)</f>
+        <v>1.000000173611111</v>
+      </c>
+      <c r="U86" s="1">
+        <f t="shared" ref="U86" si="66">U85-U84+(U85&gt;U84)</f>
+        <v>1.0000005902777778</v>
+      </c>
+      <c r="V86" s="1">
+        <f t="shared" ref="V86" si="67">V85-V84+(V85&gt;V84)</f>
+        <v>1.0000002777777777</v>
+      </c>
+    </row>
+    <row r="87" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.4491288541666667</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.44914712962962966</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.44916331018518524</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.44917769675925928</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.44919086805555558</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0.45177697916666665</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0.4518065277777778</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0.4518371990740741</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0.4518670486111111</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0.45189796296296297</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0.45427494212962966</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0.45429476851851852</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0.45431934027777782</v>
+      </c>
+      <c r="U88" s="1">
+        <v>0.45433780092592596</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0.45436105324074072</v>
+      </c>
+    </row>
+    <row r="89" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.44913071759259254</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.44914719907407408</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.44916347222222219</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.44917784722222226</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.4491909375</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0.4517790972222222</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0.45180660879629625</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0.45183736111111111</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0.4518671759259259</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0.45189810185185181</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0.45427655092592589</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0.45429493055555553</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0.45431939814814815</v>
+      </c>
+      <c r="U89" s="1">
+        <v>0.45433793981481485</v>
+      </c>
+      <c r="V89" s="1">
+        <v>0.45436119212962961</v>
+      </c>
+    </row>
+    <row r="90" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="1">
+        <f>F89-F88+(F89&gt;F88)</f>
+        <v>1.0000018634259258</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" ref="G90:J90" si="68">G89-G88+(G89&gt;G88)</f>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="68"/>
+        <v>1.0000001620370369</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="68"/>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="68"/>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" ref="L90" si="69">L89-L88+(L89&gt;L88)</f>
+        <v>1.0000021180555556</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" ref="M90" si="70">M89-M88+(M89&gt;M88)</f>
+        <v>1.0000000810185186</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" ref="N90" si="71">N89-N88+(N89&gt;N88)</f>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" ref="O90" si="72">O89-O88+(O89&gt;O88)</f>
+        <v>1.0000001273148147</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" ref="P90" si="73">P89-P88+(P89&gt;P88)</f>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" ref="R90" si="74">R89-R88+(R89&gt;R88)</f>
+        <v>1.0000016087962962</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" ref="S90" si="75">S89-S88+(S89&gt;S88)</f>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" ref="T90" si="76">T89-T88+(T89&gt;T88)</f>
+        <v>1.0000000578703703</v>
+      </c>
+      <c r="U90" s="1">
+        <f t="shared" ref="U90" si="77">U89-U88+(U89&gt;U88)</f>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="V90" s="1">
+        <f t="shared" ref="V90" si="78">V89-V88+(V89&gt;V88)</f>
+        <v>1.0000001388888888</v>
+      </c>
+    </row>
+    <row r="91" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.6331817476851852</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.6332023726851852</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.6332213888888889</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.6332391087962963</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.63326082175925924</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.63666655092592594</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0.63668112268518517</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.63670450231481479</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0.6367341319444445</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.63675519675925929</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0.63909322916666667</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0.63910905092592596</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0.63913216435185183</v>
+      </c>
+      <c r="U92" s="1">
+        <v>0.63915314814814816</v>
+      </c>
+      <c r="V92" s="1">
+        <v>0.63917572916666665</v>
+      </c>
+    </row>
+    <row r="93" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.63318312500000007</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.63320252314814818</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.6332214814814815</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.63323918981481475</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.63326096064814819</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.63666784722222225</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.6366811921296297</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.63670457175925932</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0.63673418981481478</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.63675532407407409</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0.63909449074074076</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0.63910912037037038</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0.6391322800925926</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0.63915331018518518</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0.63917583333333339</v>
+      </c>
+    </row>
+    <row r="94" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1">
+        <f>F93-F92+(F93&gt;F92)</f>
+        <v>1.0000013773148149</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" ref="G94:J94" si="79">G93-G92+(G93&gt;G92)</f>
+        <v>1.000000150462963</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="79"/>
+        <v>1.0000000925925927</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="79"/>
+        <v>1.0000000810185186</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="79"/>
+        <v>1.0000001388888888</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" ref="L94" si="80">L93-L92+(L93&gt;L92)</f>
+        <v>1.0000012962962963</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" ref="M94" si="81">M93-M92+(M93&gt;M92)</f>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" ref="N94" si="82">N93-N92+(N93&gt;N92)</f>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" ref="O94" si="83">O93-O92+(O93&gt;O92)</f>
+        <v>1.0000000578703703</v>
+      </c>
+      <c r="P94" s="1">
+        <f t="shared" ref="P94" si="84">P93-P92+(P93&gt;P92)</f>
+        <v>1.0000001273148147</v>
+      </c>
+      <c r="R94" s="1">
+        <f t="shared" ref="R94" si="85">R93-R92+(R93&gt;R92)</f>
+        <v>1.0000012615740741</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" ref="S94" si="86">S93-S92+(S93&gt;S92)</f>
+        <v>1.0000000694444444</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" ref="T94" si="87">T93-T92+(T93&gt;T92)</f>
+        <v>1.0000001157407408</v>
+      </c>
+      <c r="U94" s="1">
+        <f t="shared" ref="U94" si="88">U93-U92+(U93&gt;U92)</f>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="V94" s="1">
+        <f t="shared" ref="V94" si="89">V93-V92+(V93&gt;V92)</f>
+        <v>1.0000001041666668</v>
+      </c>
+    </row>
+    <row r="95" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="4:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
@@ -8808,7 +11184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974EA02E-40CF-2B42-B216-6445DB2DC2EA}">
   <dimension ref="A1:AR111"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -10792,7 +13168,7 @@
   <dimension ref="A1:AR91"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11760,20 +14136,68 @@
       <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="F32" s="9">
+        <f>F48</f>
+        <v>1.0000006597222222</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" ref="G32:V32" si="3">G48</f>
+        <v>1.000000763888889</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000007175925925</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000006828703705</v>
+      </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="L32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000008449074074</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000002083333333</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.000000648148148</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000001157407408</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000007523148149</v>
+      </c>
       <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="1"/>
+      <c r="R32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000001620370371</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000006712962963</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000002199074074</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000006597222222</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000006018518519</v>
+      </c>
     </row>
     <row r="33" spans="3:44" x14ac:dyDescent="0.25">
       <c r="F33" s="9"/>
@@ -11971,61 +14395,61 @@
         <v>1.0000012847222222</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" ref="G40:V40" si="3">G39-G38+(G39&gt;G38)</f>
+        <f t="shared" ref="G40:V40" si="4">G39-G38+(G39&gt;G38)</f>
         <v>1.0000008564814815</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.000000648148148</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000001157407408</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000006134259258</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000012847222224</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.000000173611111</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000000810185186</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000001273148147</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000006712962963</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000013310185185</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000007060185185</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000006712962963</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000007407407407</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0000006365740741</v>
       </c>
       <c r="W40" s="1"/>
@@ -12168,59 +14592,59 @@
         <v>1.0000002777777777</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" ref="G44:J44" si="4">G43-G42+(G43&gt;G42)</f>
+        <f t="shared" ref="G44:J44" si="5">G43-G42+(G43&gt;G42)</f>
         <v>1.0000004398148148</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0000001851851852</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0000003935185184</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0000004513888889</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" ref="L44" si="5">L43-L42+(L43&gt;L42)</f>
+        <f t="shared" ref="L44" si="6">L43-L42+(L43&gt;L42)</f>
         <v>1.0000002314814815</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" ref="M44" si="6">M43-M42+(M43&gt;M42)</f>
+        <f t="shared" ref="M44" si="7">M43-M42+(M43&gt;M42)</f>
         <v>1.0000004398148148</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" ref="N44" si="7">N43-N42+(N43&gt;N42)</f>
+        <f t="shared" ref="N44" si="8">N43-N42+(N43&gt;N42)</f>
         <v>1.0000002893518518</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" ref="O44" si="8">O43-O42+(O43&gt;O42)</f>
+        <f t="shared" ref="O44" si="9">O43-O42+(O43&gt;O42)</f>
         <v>1.0000001851851852</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" ref="P44" si="9">P43-P42+(P43&gt;P42)</f>
+        <f t="shared" ref="P44" si="10">P43-P42+(P43&gt;P42)</f>
         <v>1.0000002893518518</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" ref="R44" si="10">R43-R42+(R43&gt;R42)</f>
+        <f t="shared" ref="R44" si="11">R43-R42+(R43&gt;R42)</f>
         <v>1.0000003125000001</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" ref="S44" si="11">S43-S42+(S43&gt;S42)</f>
+        <f t="shared" ref="S44" si="12">S43-S42+(S43&gt;S42)</f>
         <v>1.000000173611111</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" ref="T44" si="12">T43-T42+(T43&gt;T42)</f>
+        <f t="shared" ref="T44" si="13">T43-T42+(T43&gt;T42)</f>
         <v>1.0000002199074074</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" ref="U44" si="13">U43-U42+(U43&gt;U42)</f>
+        <f t="shared" ref="U44" si="14">U43-U42+(U43&gt;U42)</f>
         <v>1.0000004282407406</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" ref="V44" si="14">V43-V42+(V43&gt;V42)</f>
+        <f t="shared" ref="V44" si="15">V43-V42+(V43&gt;V42)</f>
         <v>1.0000004282407406</v>
       </c>
     </row>
@@ -12345,59 +14769,59 @@
         <v>1.0000006597222222</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" ref="G48:J48" si="15">G47-G46+(G47&gt;G46)</f>
+        <f t="shared" ref="G48:J48" si="16">G47-G46+(G47&gt;G46)</f>
         <v>1.000000763888889</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0000001620370371</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0000007175925925</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0000006828703705</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" ref="L48" si="16">L47-L46+(L47&gt;L46)</f>
+        <f t="shared" ref="L48" si="17">L47-L46+(L47&gt;L46)</f>
         <v>1.0000008449074074</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" ref="M48" si="17">M47-M46+(M47&gt;M46)</f>
+        <f t="shared" ref="M48" si="18">M47-M46+(M47&gt;M46)</f>
         <v>1.0000002083333333</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ref="N48" si="18">N47-N46+(N47&gt;N46)</f>
+        <f t="shared" ref="N48" si="19">N47-N46+(N47&gt;N46)</f>
         <v>1.000000648148148</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" ref="O48" si="19">O47-O46+(O47&gt;O46)</f>
+        <f t="shared" ref="O48" si="20">O47-O46+(O47&gt;O46)</f>
         <v>1.0000001157407408</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" ref="P48" si="20">P47-P46+(P47&gt;P46)</f>
+        <f t="shared" ref="P48" si="21">P47-P46+(P47&gt;P46)</f>
         <v>1.0000007523148149</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" ref="R48" si="21">R47-R46+(R47&gt;R46)</f>
+        <f t="shared" ref="R48" si="22">R47-R46+(R47&gt;R46)</f>
         <v>1.0000001620370371</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" ref="S48" si="22">S47-S46+(S47&gt;S46)</f>
+        <f t="shared" ref="S48" si="23">S47-S46+(S47&gt;S46)</f>
         <v>1.0000006712962963</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" ref="T48" si="23">T47-T46+(T47&gt;T46)</f>
+        <f t="shared" ref="T48" si="24">T47-T46+(T47&gt;T46)</f>
         <v>1.0000002199074074</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" ref="U48" si="24">U47-U46+(U47&gt;U46)</f>
+        <f t="shared" ref="U48" si="25">U47-U46+(U47&gt;U46)</f>
         <v>1.0000006597222222</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" ref="V48" si="25">V47-V46+(V47&gt;V46)</f>
+        <f t="shared" ref="V48" si="26">V47-V46+(V47&gt;V46)</f>
         <v>1.0000006018518519</v>
       </c>
     </row>
@@ -12544,8 +14968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420A380B-36C5-B949-ABE1-953A4EF45708}">
   <dimension ref="A1:AR91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12679,6 +15103,21 @@
       <c r="P9">
         <v>4.0999999999999996</v>
       </c>
+      <c r="R9">
+        <v>3.8</v>
+      </c>
+      <c r="S9">
+        <v>3.9</v>
+      </c>
+      <c r="T9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U9">
+        <v>3.9</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
       <c r="AJ9" t="s">
         <v>56</v>
       </c>
@@ -12741,7 +15180,7 @@
       </c>
       <c r="AK10">
         <f>AVERAGE(F9:V9)</f>
-        <v>4.1099999999999994</v>
+        <v>4.0733333333333324</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -12754,6 +15193,12 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
@@ -12774,6 +15219,36 @@
       <c r="J12">
         <v>4.5999999999999996</v>
       </c>
+      <c r="L12">
+        <v>4.8</v>
+      </c>
+      <c r="M12">
+        <v>3.9</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>4.2</v>
+      </c>
+      <c r="P12">
+        <v>3.9</v>
+      </c>
+      <c r="R12">
+        <v>6.1</v>
+      </c>
+      <c r="S12">
+        <v>4.5</v>
+      </c>
+      <c r="T12">
+        <v>4.3</v>
+      </c>
+      <c r="U12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V12">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
@@ -12809,6 +15284,21 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -12840,6 +15330,36 @@
       <c r="J15">
         <v>4</v>
       </c>
+      <c r="L15">
+        <v>4.7</v>
+      </c>
+      <c r="M15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N15">
+        <v>4.2</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15" s="15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>3.7</v>
+      </c>
+      <c r="V15">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
@@ -12875,6 +15395,21 @@
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -12894,6 +15429,9 @@
       <c r="L19">
         <v>29.2</v>
       </c>
+      <c r="R19">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
@@ -12929,6 +15467,21 @@
       <c r="P20">
         <v>38.1</v>
       </c>
+      <c r="R20">
+        <v>38.9</v>
+      </c>
+      <c r="S20">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="T20">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="U20">
+        <v>38.6</v>
+      </c>
+      <c r="V20">
+        <v>38.700000000000003</v>
+      </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
@@ -12964,6 +15517,21 @@
       <c r="P21">
         <v>38.1</v>
       </c>
+      <c r="R21">
+        <v>38.6</v>
+      </c>
+      <c r="S21">
+        <v>38.6</v>
+      </c>
+      <c r="T21">
+        <v>38.5</v>
+      </c>
+      <c r="U21">
+        <v>38.6</v>
+      </c>
+      <c r="V21">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -12975,6 +15543,12 @@
       <c r="F22" s="8">
         <v>29.3</v>
       </c>
+      <c r="L22">
+        <v>29.8</v>
+      </c>
+      <c r="R22">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
@@ -12995,6 +15569,36 @@
       <c r="J23">
         <v>38.299999999999997</v>
       </c>
+      <c r="L23">
+        <v>38.9</v>
+      </c>
+      <c r="M23">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N23">
+        <v>38.9</v>
+      </c>
+      <c r="O23">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P23">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="R23">
+        <v>38.9</v>
+      </c>
+      <c r="S23">
+        <v>38.6</v>
+      </c>
+      <c r="T23">
+        <v>38.6</v>
+      </c>
+      <c r="U23">
+        <v>38.5</v>
+      </c>
+      <c r="V23">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
@@ -13015,6 +15619,36 @@
       <c r="J24">
         <v>38.299999999999997</v>
       </c>
+      <c r="L24">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M24">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="N24">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O24">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="P24">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="R24">
+        <v>38.6</v>
+      </c>
+      <c r="S24">
+        <v>38.5</v>
+      </c>
+      <c r="T24">
+        <v>38.5</v>
+      </c>
+      <c r="U24">
+        <v>38.4</v>
+      </c>
+      <c r="V24">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
@@ -13026,6 +15660,12 @@
       <c r="F25" s="8">
         <v>29.3</v>
       </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="R25">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
@@ -13046,6 +15686,36 @@
       <c r="J26" s="8">
         <v>38.200000000000003</v>
       </c>
+      <c r="L26">
+        <v>39.1</v>
+      </c>
+      <c r="M26">
+        <v>39.1</v>
+      </c>
+      <c r="N26">
+        <v>39.1</v>
+      </c>
+      <c r="O26">
+        <v>39</v>
+      </c>
+      <c r="P26">
+        <v>38.9</v>
+      </c>
+      <c r="R26">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="S26">
+        <v>39.1</v>
+      </c>
+      <c r="T26">
+        <v>38.9</v>
+      </c>
+      <c r="U26">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="V26">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
@@ -13065,6 +15735,36 @@
       </c>
       <c r="J27" s="8">
         <v>38.200000000000003</v>
+      </c>
+      <c r="L27">
+        <v>39</v>
+      </c>
+      <c r="M27">
+        <v>38.9</v>
+      </c>
+      <c r="N27">
+        <v>38.9</v>
+      </c>
+      <c r="O27">
+        <v>38.9</v>
+      </c>
+      <c r="P27">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="R27">
+        <v>39.1</v>
+      </c>
+      <c r="S27">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="T27">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="U27">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="V27">
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.25">
@@ -13120,23 +15820,23 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9">
         <f t="shared" ref="R30:V30" si="1">R40</f>
-        <v>0</v>
+        <v>1.0000008333333334</v>
       </c>
       <c r="S30" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0000002893518518</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0000001967592591</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0000002893518518</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0000001736111113</v>
       </c>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -13179,17 +15879,51 @@
         <v>1.0000000347222222</v>
       </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+      <c r="L31" s="9">
+        <f t="shared" ref="L31:W31" si="3">L44</f>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000347222222</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000347222222</v>
+      </c>
       <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="1"/>
+      <c r="R31" s="9">
+        <f t="shared" ref="R31:W31" si="4">R44</f>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000347222224</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000231481481</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000231481483</v>
+      </c>
+      <c r="W31" s="9"/>
       <c r="AJ31" s="9">
         <f>AVERAGE(G30:V30)</f>
-        <v>0.64285754960317465</v>
+        <v>1.0000005340608467</v>
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
@@ -13201,30 +15935,64 @@
         <v>1.0000007060185185</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" ref="G32:J32" si="3">G48</f>
+        <f t="shared" ref="G32:J32" si="5">G48</f>
         <v>1.0000008333333334</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000006597222222</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000001967592593</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000006828703705</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="L32" s="9">
+        <f t="shared" ref="L32:W32" si="6">L48</f>
+        <v>1.0000003587962962</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000002199074074</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000001967592591</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000002662037037</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000002662037035</v>
+      </c>
       <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="1"/>
+      <c r="R32" s="9">
+        <f t="shared" ref="R32:W32" si="7">R48</f>
+        <v>1.0000008101851852</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000001736111113</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000002546296296</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000001967592591</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0000002083333333</v>
+      </c>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="3:44" x14ac:dyDescent="0.25">
       <c r="F33" s="9"/>
@@ -13302,11 +16070,21 @@
         <v>0.3294521412037037</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="R38" s="1">
+        <v>0.64615785879629628</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.64618247685185182</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0.64620703703703708</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.64623410879629628</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0.64625593749999999</v>
+      </c>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -13366,11 +16144,21 @@
         <v>0.32945238425925927</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="R39" s="1">
+        <v>0.64615869212962962</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.64618276620370374</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.6462072337962963</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.64623439814814809</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0.64625611111111114</v>
+      </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -13402,19 +16190,19 @@
         <v>1.0000008333333334</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" ref="G40:J40" si="4">G39-G38+(G39&gt;G38)</f>
+        <f t="shared" ref="G40:J40" si="8">G39-G38+(G39&gt;G38)</f>
         <v>1.0000008680555554</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000007523148149</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000002199074074</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.000000798611111</v>
       </c>
       <c r="K40" s="1"/>
@@ -13423,27 +16211,42 @@
         <v>1.0000008333333334</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" ref="M40" si="5">M39-M38+(M39&gt;M38)</f>
+        <f t="shared" ref="M40" si="9">M39-M38+(M39&gt;M38)</f>
         <v>1.0000009375000001</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40" si="6">N39-N38+(N39&gt;N38)</f>
+        <f t="shared" ref="N40" si="10">N39-N38+(N39&gt;N38)</f>
         <v>1.0000008101851852</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" ref="O40" si="7">O39-O38+(O39&gt;O38)</f>
+        <f t="shared" ref="O40" si="11">O39-O38+(O39&gt;O38)</f>
         <v>1.0000002314814815</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" ref="P40" si="8">P39-P38+(P39&gt;P38)</f>
+        <f t="shared" ref="P40" si="12">P39-P38+(P39&gt;P38)</f>
         <v>1.0000002430555557</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="R40" s="1">
+        <f>R39-R38+(R39&gt;R38)</f>
+        <v>1.0000008333333334</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" ref="S40:V40" si="13">S39-S38+(S39&gt;S38)</f>
+        <v>1.0000002893518518</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0000001967592591</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0000002893518518</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0000001736111113</v>
+      </c>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -13492,6 +16295,36 @@
       <c r="J42" s="1">
         <v>0.33386550925925929</v>
       </c>
+      <c r="L42" s="1">
+        <v>0.64903868055555558</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.64925629629629633</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.64928260416666672</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.64930173611111108</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.64932071759259258</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.65155865740740737</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.65164628472222219</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.65167424768518523</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.65169552083333337</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0.65172590277777775</v>
+      </c>
     </row>
     <row r="43" spans="3:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
@@ -13513,6 +16346,36 @@
       <c r="J43" s="1">
         <v>0.33386554398148149</v>
       </c>
+      <c r="L43" s="1">
+        <v>0.64903869212962961</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.64925630787037036</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.64928263888888893</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.64930174768518512</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.64932075231481479</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.65155866898148151</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.65164631944444451</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.65167425925925926</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.65169554398148144</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.65172592592592593</v>
+      </c>
     </row>
     <row r="44" spans="3:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
@@ -13524,20 +16387,60 @@
         <v>1.0000000231481481</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" ref="G44:J44" si="9">G43-G42+(G43&gt;G42)</f>
+        <f t="shared" ref="G44:J44" si="14">G43-G42+(G43&gt;G42)</f>
         <v>1.0000000231481483</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.0000000231481481</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.0000000347222222</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.0000000347222222</v>
+      </c>
+      <c r="L44" s="1">
+        <f>L43-L42+(L43&gt;L42)</f>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="M44" s="1">
+        <f>M43-M42+(M43&gt;M42)</f>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44:P44" si="15">N43-N42+(N43&gt;N42)</f>
+        <v>1.0000000347222222</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="15"/>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="15"/>
+        <v>1.0000000347222222</v>
+      </c>
+      <c r="R44" s="1">
+        <f>R43-R42+(R43&gt;R42)</f>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="S44" s="1">
+        <f>S43-S42+(S43&gt;S42)</f>
+        <v>1.0000000347222224</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" ref="T44" si="16">T43-T42+(T43&gt;T42)</f>
+        <v>1.0000000115740741</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" ref="U44" si="17">U43-U42+(U43&gt;U42)</f>
+        <v>1.0000000231481481</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" ref="V44" si="18">V43-V42+(V43&gt;V42)</f>
+        <v>1.0000000231481483</v>
       </c>
     </row>
     <row r="45" spans="3:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13567,6 +16470,36 @@
       <c r="J46" s="1">
         <v>0.33748983796296295</v>
       </c>
+      <c r="L46" s="1">
+        <v>0.65563466435185191</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.65565668981481484</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.65567947916666669</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.65570366898148147</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.65573085648148155</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.65807314814814821</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.65809354166666667</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0.65811252314814817</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.65813418981481486</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0.65816505787037038</v>
+      </c>
     </row>
     <row r="47" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
@@ -13589,6 +16522,36 @@
       <c r="J47" s="1">
         <v>0.33749052083333336</v>
       </c>
+      <c r="L47" s="1">
+        <v>0.65563502314814814</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.65565690972222224</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.65567967592592591</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.65570393518518522</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.65573112268518519</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.65807395833333338</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.65809371527777782</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0.65811277777777777</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.65813438657407408</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0.65816526620370375</v>
+      </c>
     </row>
     <row r="48" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
@@ -13601,128 +16564,108 @@
         <v>1.0000007060185185</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" ref="G48:J48" si="10">G47-G46+(G47&gt;G46)</f>
+        <f t="shared" ref="G48:J48" si="19">G47-G46+(G47&gt;G46)</f>
         <v>1.0000008333333334</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.0000006597222222</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.0000001967592593</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.0000006828703705</v>
       </c>
-    </row>
-    <row r="49" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <f t="shared" ref="L48:V48" si="20">L47-L46+(L47&gt;L46)</f>
+        <v>1.0000003587962962</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000002199074074</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000001967592591</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000002662037037</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000002662037035</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" ref="R48" si="21">R47-R46+(R47&gt;R46)</f>
+        <v>1.0000008101851852</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000001736111113</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000002546296296</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000001967592591</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0000002083333333</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
-      <c r="G52" s="1">
-        <v>0.3318946527777778</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.33590149305555556</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
-      <c r="G53" s="1">
-        <v>0.33189467592592592</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.33590219907407404</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
-      <c r="G54" s="1">
-        <v>0.33254177083333331</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.33636998842592591</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
-      <c r="G55" s="1">
-        <v>0.33254179398148148</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.33637082175925931</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
-      <c r="G56" s="1">
-        <v>0.33314207175925925</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.33667548611111114</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
-      <c r="G57" s="1">
-        <v>0.33314209490740737</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.33667614583333333</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
-      <c r="G58" s="1">
-        <v>0.33357560185185187</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.33712462962962958</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
-      <c r="G59" s="1">
-        <v>0.33357563657407407</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.33712482638888885</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
-      <c r="G60" s="1">
-        <v>0.33386550925925929</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0.33748983796296295</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
-      <c r="G61" s="1">
-        <v>0.33386554398148149</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.33749052083333336</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13853,8 +16796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C82FBAC-B375-4DC8-9729-BDAFD5F6D36B}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13988,6 +16931,21 @@
       <c r="P9">
         <v>0.9</v>
       </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>0.9</v>
+      </c>
+      <c r="T9">
+        <v>0.9</v>
+      </c>
+      <c r="U9">
+        <v>1.3</v>
+      </c>
+      <c r="V9">
+        <v>1.2</v>
+      </c>
       <c r="AJ9" t="s">
         <v>56</v>
       </c>
@@ -14050,7 +17008,7 @@
       </c>
       <c r="AK10">
         <f>AVERAGE(F9:V9)</f>
-        <v>2.12</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -14104,6 +17062,21 @@
       <c r="P13">
         <v>0.8</v>
       </c>
+      <c r="R13">
+        <v>7.4</v>
+      </c>
+      <c r="S13">
+        <v>1.2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1.6</v>
+      </c>
+      <c r="V13">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="AJ13" t="s">
         <v>56</v>
       </c>
@@ -14166,7 +17139,7 @@
       </c>
       <c r="AK14">
         <f>AVERAGE(F13:V13)</f>
-        <v>2.4899999999999998</v>
+        <v>2.5533333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -14174,7 +17147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>81</v>
       </c>
@@ -14187,8 +17160,11 @@
       <c r="L17">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>51</v>
       </c>
@@ -14222,8 +17198,23 @@
       <c r="P18">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>50.8</v>
+      </c>
+      <c r="S18">
+        <v>50.9</v>
+      </c>
+      <c r="T18">
+        <v>50.9</v>
+      </c>
+      <c r="U18">
+        <v>51</v>
+      </c>
+      <c r="V18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>52</v>
       </c>
@@ -14257,8 +17248,23 @@
       <c r="P19">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>50.6</v>
+      </c>
+      <c r="S19">
+        <v>50.7</v>
+      </c>
+      <c r="T19">
+        <v>50.7</v>
+      </c>
+      <c r="U19">
+        <v>50.8</v>
+      </c>
+      <c r="V19">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>80</v>
       </c>
@@ -14271,8 +17277,11 @@
       <c r="L21">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>51</v>
       </c>
@@ -14306,8 +17315,23 @@
       <c r="P22">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>51.9</v>
+      </c>
+      <c r="S22">
+        <v>51.9</v>
+      </c>
+      <c r="T22">
+        <v>51.8</v>
+      </c>
+      <c r="U22">
+        <v>51.8</v>
+      </c>
+      <c r="V22">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>52</v>
       </c>
@@ -14341,51 +17365,66 @@
       <c r="P23">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>51.8</v>
+      </c>
+      <c r="S23">
+        <v>51.4</v>
+      </c>
+      <c r="T23">
+        <v>51.4</v>
+      </c>
+      <c r="U23">
+        <v>51.5</v>
+      </c>
+      <c r="V23">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
       <c r="H32" s="1"/>
